--- a/FichTec.xlsx
+++ b/FichTec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4860AD8-7223-413D-B56F-432DD3A51E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9D3478-F414-4B79-8936-3D2364D9CF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>

--- a/FichTec.xlsx
+++ b/FichTec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9D3478-F414-4B79-8936-3D2364D9CF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E156E8-1F76-4256-8BAB-BA3E84114741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Protein content</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Nuts</t>
   </si>
   <si>
-    <t>0.00%</t>
-  </si>
-  <si>
     <t>Sugars/Sweeteners</t>
   </si>
   <si>
@@ -180,6 +177,12 @@
   </si>
   <si>
     <t>Syrup de caña</t>
+  </si>
+  <si>
+    <t>43.8%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -654,69 +657,69 @@
   <sheetData>
     <row r="1" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="4">
         <v>39</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G2" s="9">
         <v>11038</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4">
         <v>65</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4">
         <v>320</v>
@@ -724,34 +727,34 @@
     </row>
     <row r="3" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.438</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="4">
         <v>553</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>4</v>
+      <c r="H3" s="4">
+        <v>0</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4">
         <v>680</v>
@@ -759,28 +762,28 @@
     </row>
     <row r="4" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E4" s="4">
         <v>269</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
         <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -794,34 +797,34 @@
     </row>
     <row r="5" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="4">
         <v>412</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="4">
         <v>440</v>
@@ -829,34 +832,34 @@
     </row>
     <row r="6" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="4">
         <v>160</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="4">
         <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="4">
         <v>420</v>
@@ -864,22 +867,22 @@
     </row>
     <row r="7" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="4">
         <v>365</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
+      <c r="F7" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
@@ -891,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="4">
         <v>500</v>
@@ -899,34 +902,34 @@
     </row>
     <row r="8" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="4">
         <v>499</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="4">
         <v>940</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4">
         <v>38</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="4">
         <v>1250</v>

--- a/FichTec.xlsx
+++ b/FichTec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E156E8-1F76-4256-8BAB-BA3E84114741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54C711-586A-4893-B49E-50394250B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>

--- a/FichTec.xlsx
+++ b/FichTec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54C711-586A-4893-B49E-50394250B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CCC2F6-57DA-4CC3-B21E-C1FF3D5332BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Protein content</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>0.0%</t>
+  </si>
+  <si>
+    <t>Aceite de Canola</t>
+  </si>
+  <si>
+    <t>Aceite</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -306,9 +312,20 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F327A73A-5982-48E2-8B94-FF618D626A41}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -710,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="G2" s="9">
-        <v>11038</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>38</v>
@@ -933,6 +950,41 @@
       </c>
       <c r="K8" s="4">
         <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>884</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/FichTec.xlsx
+++ b/FichTec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CCC2F6-57DA-4CC3-B21E-C1FF3D5332BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD0B9CC-C960-4916-A005-8B477841FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Protein content</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Aceite</t>
+  </si>
+  <si>
+    <t>100.0%</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -321,11 +324,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,31 +957,31 @@
       <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4">
         <v>884</v>
       </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>1500</v>
       </c>
     </row>

--- a/FichTec.xlsx
+++ b/FichTec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD0B9CC-C960-4916-A005-8B477841FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E868CD1-62B6-4233-BA14-0BF095068271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -191,7 +191,7 @@
     <t>Aceite</t>
   </si>
   <si>
-    <t>100.0%</t>
+    <t>100.00%</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>

--- a/FichTec.xlsx
+++ b/FichTec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E868CD1-62B6-4233-BA14-0BF095068271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD34AA5-7919-402C-9F2A-7FC725F17814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -191,7 +191,7 @@
     <t>Aceite</t>
   </si>
   <si>
-    <t>100.00%</t>
+    <t>99.99%</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
